--- a/NDHSITE/NDHSITE/haiupload/report_order_staff_sales.xlsx
+++ b/NDHSITE/NDHSITE/haiupload/report_order_staff_sales.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Project\005HAI\mvc_cskh_hai\NDHSITE\NDHSITE\haiupload\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="60" windowWidth="14355" windowHeight="4425"/>
   </bookViews>
@@ -16,41 +21,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>CN</t>
   </si>
   <si>
-    <t>NHÂN VIÊN</t>
-  </si>
-  <si>
-    <t>SL ĐƠN HÀNG</t>
-  </si>
-  <si>
     <t>TỶ LỆ</t>
   </si>
   <si>
-    <t>DOANH THU THỰC TẾ</t>
-  </si>
-  <si>
     <t>DOANH THU ĐƠN HÀNG</t>
   </si>
   <si>
     <t>DOANH THU CÓ PHIẾU</t>
   </si>
   <si>
-    <t>DOANH SỐ NHẮN TIN</t>
-  </si>
-  <si>
     <t>DOANH SỐ KHÔNG PHIẾU</t>
   </si>
   <si>
-    <t>DOANH SỐ GIAO MỚI</t>
-  </si>
-  <si>
-    <t>DOANH SỐ HÀNG GỬI KHO</t>
-  </si>
-  <si>
     <t>Ý KIẾN CHI NHÁNH</t>
   </si>
   <si>
@@ -58,6 +45,21 @@
   </si>
   <si>
     <t>Đến ngày:</t>
+  </si>
+  <si>
+    <t>SL ĐẠI LÝ MUA HÀNG</t>
+  </si>
+  <si>
+    <t>SL ĐƠN HÀNG ĐẶT</t>
+  </si>
+  <si>
+    <t>DOANH THU THỰC GIAO</t>
+  </si>
+  <si>
+    <t>MÃ NV</t>
+  </si>
+  <si>
+    <t>TÊN NV</t>
   </si>
 </sst>
 </file>
@@ -176,6 +178,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -223,7 +228,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -258,7 +263,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -467,117 +472,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="27" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="26" style="9" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" style="5" customWidth="1"/>
+    <col min="3" max="4" width="27" style="5" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="26" style="9" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="26.140625" style="9" customWidth="1"/>
     <col min="10" max="10" width="32.85546875" style="9" customWidth="1"/>
-    <col min="11" max="11" width="35.5703125" style="9" customWidth="1"/>
-    <col min="12" max="12" width="27.7109375" style="9" customWidth="1"/>
-    <col min="13" max="13" width="55.7109375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="55.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
-      <c r="B1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="I1" s="7"/>
       <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="4"/>
+      <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="4"/>
+      <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="4"/>
+      <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="I4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
